--- a/public/samp/Samp.xlsx
+++ b/public/samp/Samp.xlsx
@@ -5,20 +5,26 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\hihihi\public\sample\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\QLCDV\public\samp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{958F1FE6-2BFD-42AF-AAD5-89AEAFC0D59C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41275A08-B342-4936-8E0C-F47FA66B8ACE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19800" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -148,7 +154,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -156,6 +162,9 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -439,8 +448,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="V2" sqref="V2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -449,7 +458,7 @@
     <col min="3" max="3" width="12.140625" customWidth="1"/>
     <col min="4" max="4" width="12.28515625" customWidth="1"/>
     <col min="5" max="5" width="16.28515625" customWidth="1"/>
-    <col min="6" max="6" width="20.7109375" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" style="2" customWidth="1"/>
     <col min="7" max="7" width="21.28515625" customWidth="1"/>
     <col min="8" max="8" width="17" customWidth="1"/>
     <col min="9" max="9" width="22.85546875" customWidth="1"/>
@@ -459,8 +468,8 @@
     <col min="13" max="13" width="17.28515625" customWidth="1"/>
     <col min="14" max="14" width="22.28515625" customWidth="1"/>
     <col min="15" max="15" width="17.5703125" customWidth="1"/>
-    <col min="16" max="16" width="22.42578125" customWidth="1"/>
-    <col min="17" max="17" width="29.140625" customWidth="1"/>
+    <col min="16" max="16" width="22.42578125" style="2" customWidth="1"/>
+    <col min="17" max="17" width="29.140625" style="2" customWidth="1"/>
     <col min="18" max="18" width="24.5703125" customWidth="1"/>
     <col min="19" max="19" width="17.28515625" customWidth="1"/>
     <col min="20" max="21" width="18.42578125" customWidth="1"/>
@@ -482,7 +491,7 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -512,10 +521,10 @@
       <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="5" t="s">
         <v>15</v>
       </c>
       <c r="R1" s="1" t="s">
@@ -535,10 +544,7 @@
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="F2" s="2"/>
       <c r="L2" s="3"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/samp/Samp.xlsx
+++ b/public/samp/Samp.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\QLCDV\public\samp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41275A08-B342-4936-8E0C-F47FA66B8ACE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EC58477-787A-4A26-B530-CFE71DD48645}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19800" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,18 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>dv_id</t>
   </si>
@@ -82,9 +76,6 @@
   </si>
   <si>
     <t>cdv_trangthai</t>
-  </si>
-  <si>
-    <t>cdv_hinhanh</t>
   </si>
   <si>
     <t>cdv_username</t>
@@ -446,10 +437,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V2"/>
+  <dimension ref="A1:U2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="S1" sqref="S1:S1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -471,11 +462,10 @@
     <col min="16" max="16" width="22.42578125" style="2" customWidth="1"/>
     <col min="17" max="17" width="29.140625" style="2" customWidth="1"/>
     <col min="18" max="18" width="24.5703125" customWidth="1"/>
-    <col min="19" max="19" width="17.28515625" customWidth="1"/>
-    <col min="20" max="21" width="18.42578125" customWidth="1"/>
+    <col min="19" max="20" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -516,7 +506,7 @@
         <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>13</v>
@@ -536,14 +526,11 @@
       <c r="T1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="V1" s="4" t="s">
-        <v>21</v>
+      <c r="U1" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="L2" s="3"/>
     </row>
   </sheetData>

--- a/public/samp/Samp.xlsx
+++ b/public/samp/Samp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\QLCDV\public\samp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EC58477-787A-4A26-B530-CFE71DD48645}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0683F2F0-A201-4258-B53D-F6AFDB0AABC0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19800" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -439,8 +439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="S1" sqref="S1:S1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -531,9 +531,22 @@
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="K2">
+        <v>123456789</v>
+      </c>
       <c r="L2" s="3"/>
     </row>
   </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T1:T1048576" xr:uid="{050E28B1-3162-4ACB-9288-E940F82227E7}">
+      <formula1>8</formula1>
+      <formula2>50</formula2>
+    </dataValidation>
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1:K1048576 H1:H1048576" xr:uid="{67AFC0CD-0950-4513-8F86-3BC67AC96397}">
+      <formula1>9</formula1>
+      <formula2>9</formula2>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/public/samp/Samp.xlsx
+++ b/public/samp/Samp.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\QLCDV\public\samp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0683F2F0-A201-4258-B53D-F6AFDB0AABC0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFC81030-46D6-472D-AE63-E4F2B04D0B34}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19800" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19800" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Mẫu nhập" sheetId="1" r:id="rId1"/>
+    <sheet name="Mẫu ví dụ" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,81 +26,383 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
-  <si>
-    <t>dv_id</t>
-  </si>
-  <si>
-    <t>cv_id</t>
-  </si>
-  <si>
-    <t>lnv_id</t>
-  </si>
-  <si>
-    <t>mht_id</t>
-  </si>
-  <si>
-    <t>cdv_ten</t>
-  </si>
-  <si>
-    <t>cdv_ngaysinh</t>
-  </si>
-  <si>
-    <t>cdv_gioitinh</t>
-  </si>
-  <si>
-    <t>cdv_cmnd</t>
-  </si>
-  <si>
-    <t>cdv_nguyenquan</t>
-  </si>
-  <si>
-    <t>cdv_diachi</t>
-  </si>
-  <si>
-    <t>cdv_sdt</t>
-  </si>
-  <si>
-    <t>cdv_email</t>
-  </si>
-  <si>
-    <t>cdv_dantoc</t>
-  </si>
-  <si>
-    <t>cdv_tongiao</t>
-  </si>
-  <si>
-    <t>cdv_ngaythuviec</t>
-  </si>
-  <si>
-    <t>cdv_nganhvaonganh</t>
-  </si>
-  <si>
-    <t>cdv_trangthai</t>
-  </si>
-  <si>
-    <t>cdv_username</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>cdv_trinhdo</t>
-  </si>
-  <si>
-    <t>cdv_quyen</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="68">
+  <si>
+    <t>Đơn vị</t>
+  </si>
+  <si>
+    <t>Chức vụ</t>
+  </si>
+  <si>
+    <t>Loại nhân viên</t>
+  </si>
+  <si>
+    <t>Họ và tên</t>
+  </si>
+  <si>
+    <t>Ngày sinh</t>
+  </si>
+  <si>
+    <t>Giới tính</t>
+  </si>
+  <si>
+    <t>CMND</t>
+  </si>
+  <si>
+    <t>Nguyên quán</t>
+  </si>
+  <si>
+    <t>Địa chỉ</t>
+  </si>
+  <si>
+    <t>Số điện thoại</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Dân tộc</t>
+  </si>
+  <si>
+    <t>Trình độ</t>
+  </si>
+  <si>
+    <t>Tôn giáo</t>
+  </si>
+  <si>
+    <t>Ngày thử việc</t>
+  </si>
+  <si>
+    <t>Ngày vào công đoàn</t>
+  </si>
+  <si>
+    <t>Trạng thái</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nhập vào đơn vị mà bạn đang làm việc với :  </t>
+  </si>
+  <si>
+    <t>Nhập vào chức vụ mà bạn đang đảm nhận:</t>
+  </si>
+  <si>
+    <t>Nhập vào loại nhân viên của bạn:</t>
+  </si>
+  <si>
+    <t>Nhập vào họ tên của bạn</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(là Trung Tâm CNTT Tiền Giang)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>Nguyễn Thị A</t>
+  </si>
+  <si>
+    <t>Nhập vào ngày sinh của bạn</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn B</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(là Viễn Thông Tiền Giang)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (là Chủ tịch)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(là Phó chủ tịch)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(là Trưởng ban tổ chức)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">4  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(là Chủ nhiệm ủy ban kiểm tra)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">5  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(là Ủy viên ban thường vụ)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(là Nhân viên chính thức)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(là Nhân viên thực tập)</t>
+    </r>
+  </si>
+  <si>
+    <t>Nhập vào giới tính của bạn</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">0 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(là Nữ)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(là Nam)</t>
+    </r>
+  </si>
+  <si>
+    <t>Nhập vào chứng minh nhân dân của bạn với 9 kí tự</t>
+  </si>
+  <si>
+    <t>123456789</t>
+  </si>
+  <si>
+    <t>987654321</t>
+  </si>
+  <si>
+    <t>Nhập vào nguyên quán của bạn</t>
+  </si>
+  <si>
+    <t>Cần Thơ</t>
+  </si>
+  <si>
+    <t>Vĩnh Long</t>
+  </si>
+  <si>
+    <t>Nhập vào địa chỉ của bạn</t>
+  </si>
+  <si>
+    <t>111 ABC phường XYZ</t>
+  </si>
+  <si>
+    <t>222 KKK phường HIHI</t>
+  </si>
+  <si>
+    <t>Nhập vào số điện thoại của bạn với 10 kí tự</t>
+  </si>
+  <si>
+    <t>0123456789</t>
+  </si>
+  <si>
+    <t>0987654321</t>
+  </si>
+  <si>
+    <t>Nhập vào địa chỉ email của bạn</t>
+  </si>
+  <si>
+    <t>nta0101@gmail.com</t>
+  </si>
+  <si>
+    <t>nvb0101@gmail.com</t>
+  </si>
+  <si>
+    <t>Nhập vào dân tộc của bạn</t>
+  </si>
+  <si>
+    <t>Nhập vào trình độ của bạn</t>
+  </si>
+  <si>
+    <t>Nhập vào tôn giáo của bạn</t>
+  </si>
+  <si>
+    <t>Nhập vào ngày thử việc của bạn</t>
+  </si>
+  <si>
+    <t>Nhập vào ngày vào công đoàn của bạn</t>
+  </si>
+  <si>
+    <t>Nhập vào username của bạn</t>
+  </si>
+  <si>
+    <t>Nhập vào password của bạn (từ 8 đến 50 kí tự)</t>
+  </si>
+  <si>
+    <t>Kinh</t>
+  </si>
+  <si>
+    <t>Hoa</t>
+  </si>
+  <si>
+    <t>11/12</t>
+  </si>
+  <si>
+    <t>Đại học</t>
+  </si>
+  <si>
+    <t>Phật</t>
+  </si>
+  <si>
+    <t>Thiên chúa</t>
+  </si>
+  <si>
+    <t>nguyenthia0101</t>
+  </si>
+  <si>
+    <t>nguyenvanb0101</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="163"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -117,8 +420,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="163"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -131,8 +442,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -140,22 +457,50 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -437,35 +782,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U2"/>
+  <dimension ref="A1:T2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" customWidth="1"/>
-    <col min="6" max="6" width="20.7109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="21.28515625" customWidth="1"/>
-    <col min="8" max="8" width="17" customWidth="1"/>
-    <col min="9" max="9" width="22.85546875" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" customWidth="1"/>
-    <col min="11" max="11" width="16.85546875" customWidth="1"/>
-    <col min="12" max="12" width="12.7109375" customWidth="1"/>
-    <col min="13" max="13" width="17.28515625" customWidth="1"/>
-    <col min="14" max="14" width="22.28515625" customWidth="1"/>
-    <col min="15" max="15" width="17.5703125" customWidth="1"/>
-    <col min="16" max="16" width="22.42578125" style="2" customWidth="1"/>
-    <col min="17" max="17" width="29.140625" style="2" customWidth="1"/>
-    <col min="18" max="18" width="24.5703125" customWidth="1"/>
-    <col min="19" max="20" width="18.42578125" customWidth="1"/>
+    <col min="1" max="1" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="23.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -481,7 +827,7 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -506,47 +852,443 @@
         <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="R1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="4" t="s">
-        <v>20</v>
-      </c>
+      <c r="T1" s="4"/>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="K2">
-        <v>123456789</v>
-      </c>
-      <c r="L2" s="3"/>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="K2" s="3"/>
     </row>
   </sheetData>
-  <dataValidations count="2">
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T1:T1048576" xr:uid="{050E28B1-3162-4ACB-9288-E940F82227E7}">
+  <dataValidations count="3">
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S1:S1048576" xr:uid="{050E28B1-3162-4ACB-9288-E940F82227E7}">
       <formula1>8</formula1>
       <formula2>50</formula2>
     </dataValidation>
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1:K1048576 H1:H1048576" xr:uid="{67AFC0CD-0950-4513-8F86-3BC67AC96397}">
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 G1 J1" xr:uid="{67AFC0CD-0950-4513-8F86-3BC67AC96397}">
       <formula1>9</formula1>
       <formula2>9</formula2>
+    </dataValidation>
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J1048576" xr:uid="{690E4A67-6F3E-46EF-96D9-6FD0AD0B7F50}">
+      <formula1>10</formula1>
+      <formula2>10</formula2>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C06A284-BBA2-4D97-B869-CD5FE0B6F7C2}">
+  <dimension ref="A1:S9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="33" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" customWidth="1"/>
+    <col min="3" max="3" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="5" max="5" width="20.28515625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" customWidth="1"/>
+    <col min="7" max="7" width="21.7109375" style="5" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" customWidth="1"/>
+    <col min="9" max="9" width="19.140625" customWidth="1"/>
+    <col min="10" max="10" width="15.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.85546875" customWidth="1"/>
+    <col min="12" max="12" width="17.140625" customWidth="1"/>
+    <col min="13" max="13" width="17.140625" style="5" customWidth="1"/>
+    <col min="14" max="14" width="19" customWidth="1"/>
+    <col min="15" max="15" width="16.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="23.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="20.140625" customWidth="1"/>
+    <col min="18" max="18" width="22.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="S1" s="4"/>
+    </row>
+    <row r="2" spans="1:19" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="10"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" s="11"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="12"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="10"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="11"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" s="10"/>
+      <c r="B5" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="10"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" s="10"/>
+      <c r="B6" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" s="10"/>
+      <c r="B7" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="10"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="2">
+        <v>35796</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H8" t="s">
+        <v>42</v>
+      </c>
+      <c r="I8" t="s">
+        <v>45</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="L8" t="s">
+        <v>60</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="N8" t="s">
+        <v>64</v>
+      </c>
+      <c r="O8" s="2">
+        <v>41255</v>
+      </c>
+      <c r="P8" s="2">
+        <v>41345</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>66</v>
+      </c>
+      <c r="R8">
+        <v>123456789</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="2">
+        <v>35796</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H9" t="s">
+        <v>43</v>
+      </c>
+      <c r="I9" t="s">
+        <v>46</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="L9" t="s">
+        <v>61</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="N9" t="s">
+        <v>65</v>
+      </c>
+      <c r="O9" s="2">
+        <v>37591</v>
+      </c>
+      <c r="P9" s="2">
+        <v>37681</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>67</v>
+      </c>
+      <c r="R9">
+        <v>987654321</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="3">
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3:J1048576" xr:uid="{46F01E01-1A31-4341-9E25-F40D88A19ADB}">
+      <formula1>10</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1 G1 G3:G1048576" xr:uid="{4D181D1E-5EC6-46C8-8419-DF02919CC6C5}">
+      <formula1>9</formula1>
+      <formula2>9</formula2>
+    </dataValidation>
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R1:R1048576" xr:uid="{66841256-45DF-42F5-9DBC-132801B7A7F6}">
+      <formula1>8</formula1>
+      <formula2>50</formula2>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="K8" r:id="rId1" xr:uid="{2209F84C-1308-4BA1-8756-1BE9F401F99F}"/>
+    <hyperlink ref="K9" r:id="rId2" display="nvB0101@gmail.com" xr:uid="{21B42718-EF7A-49B6-B397-F8B52F7DD20D}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/public/samp/Samp.xlsx
+++ b/public/samp/Samp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\QLCDV\public\samp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFC81030-46D6-472D-AE63-E4F2B04D0B34}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{814E169E-2F91-48A7-A6CF-A26410DEE480}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19800" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19800" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mẫu nhập" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="67">
   <si>
     <t>Đơn vị</t>
   </si>
@@ -74,9 +74,6 @@
   </si>
   <si>
     <t>Ngày vào công đoàn</t>
-  </si>
-  <si>
-    <t>Trạng thái</t>
   </si>
   <si>
     <t>Username</t>
@@ -444,7 +441,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -499,8 +496,8 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -782,10 +779,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -806,12 +803,11 @@
     <col min="14" max="14" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="16.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="23.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -866,21 +862,18 @@
       <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="4"/>
+      <c r="S1" s="4"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="K2" s="3"/>
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S1:S1048576" xr:uid="{050E28B1-3162-4ACB-9288-E940F82227E7}">
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R1:R1048576" xr:uid="{050E28B1-3162-4ACB-9288-E940F82227E7}">
       <formula1>8</formula1>
       <formula2>50</formula2>
     </dataValidation>
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576 G1 J1" xr:uid="{67AFC0CD-0950-4513-8F86-3BC67AC96397}">
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576 J1" xr:uid="{67AFC0CD-0950-4513-8F86-3BC67AC96397}">
       <formula1>9</formula1>
       <formula2>9</formula2>
     </dataValidation>
@@ -897,8 +890,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C06A284-BBA2-4D97-B869-CD5FE0B6F7C2}">
   <dimension ref="A1:S9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R8" sqref="A8:R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -973,188 +966,188 @@
         <v>15</v>
       </c>
       <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="S1" s="4"/>
     </row>
     <row r="2" spans="1:19" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="C2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>22</v>
-      </c>
       <c r="E2" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L2" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="M2" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="M2" s="8" t="s">
+      <c r="N2" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="O2" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="O2" s="7" t="s">
+      <c r="P2" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="P2" s="7" t="s">
+      <c r="Q2" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="Q2" s="6" t="s">
+      <c r="R2" s="6" t="s">
         <v>58</v>
-      </c>
-      <c r="R2" s="6" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D3" s="10"/>
-      <c r="E3" s="12"/>
+      <c r="E3" s="11"/>
       <c r="F3" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="G3" s="11"/>
+        <v>36</v>
+      </c>
+      <c r="G3" s="12"/>
       <c r="H3" s="10"/>
       <c r="I3" s="10"/>
-      <c r="J3" s="11"/>
+      <c r="J3" s="12"/>
       <c r="K3" s="10"/>
       <c r="L3" s="10"/>
-      <c r="M3" s="11"/>
+      <c r="M3" s="12"/>
       <c r="N3" s="10"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="12"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
       <c r="Q3" s="10"/>
       <c r="R3" s="10"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D4" s="10"/>
-      <c r="E4" s="12"/>
+      <c r="E4" s="11"/>
       <c r="F4" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="G4" s="11"/>
+        <v>35</v>
+      </c>
+      <c r="G4" s="12"/>
       <c r="H4" s="10"/>
       <c r="I4" s="10"/>
-      <c r="J4" s="11"/>
+      <c r="J4" s="12"/>
       <c r="K4" s="10"/>
       <c r="L4" s="10"/>
-      <c r="M4" s="11"/>
+      <c r="M4" s="12"/>
       <c r="N4" s="10"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="12"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
       <c r="Q4" s="10"/>
       <c r="R4" s="10"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="10"/>
       <c r="B5" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
-      <c r="E5" s="12"/>
+      <c r="E5" s="11"/>
       <c r="F5" s="10"/>
-      <c r="G5" s="11"/>
+      <c r="G5" s="12"/>
       <c r="H5" s="10"/>
       <c r="I5" s="10"/>
-      <c r="J5" s="11"/>
+      <c r="J5" s="12"/>
       <c r="K5" s="10"/>
       <c r="L5" s="10"/>
-      <c r="M5" s="11"/>
+      <c r="M5" s="12"/>
       <c r="N5" s="10"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="12"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
       <c r="Q5" s="10"/>
       <c r="R5" s="10"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="10"/>
       <c r="B6" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
-      <c r="E6" s="12"/>
+      <c r="E6" s="11"/>
       <c r="F6" s="10"/>
-      <c r="G6" s="11"/>
+      <c r="G6" s="12"/>
       <c r="H6" s="10"/>
       <c r="I6" s="10"/>
-      <c r="J6" s="11"/>
+      <c r="J6" s="12"/>
       <c r="K6" s="10"/>
       <c r="L6" s="10"/>
-      <c r="M6" s="11"/>
+      <c r="M6" s="12"/>
       <c r="N6" s="10"/>
-      <c r="O6" s="12"/>
-      <c r="P6" s="12"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
       <c r="Q6" s="10"/>
       <c r="R6" s="10"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="10"/>
       <c r="B7" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
-      <c r="E7" s="12"/>
+      <c r="E7" s="11"/>
       <c r="F7" s="10"/>
-      <c r="G7" s="11"/>
+      <c r="G7" s="12"/>
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
-      <c r="J7" s="11"/>
+      <c r="J7" s="12"/>
       <c r="K7" s="10"/>
       <c r="L7" s="10"/>
-      <c r="M7" s="11"/>
+      <c r="M7" s="12"/>
       <c r="N7" s="10"/>
-      <c r="O7" s="12"/>
-      <c r="P7" s="12"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
       <c r="Q7" s="10"/>
       <c r="R7" s="10"/>
     </row>
@@ -1169,7 +1162,7 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E8" s="2">
         <v>35796</v>
@@ -1178,28 +1171,28 @@
         <v>0</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O8" s="2">
         <v>41255</v>
@@ -1208,7 +1201,7 @@
         <v>41345</v>
       </c>
       <c r="Q8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="R8">
         <v>123456789</v>
@@ -1225,7 +1218,7 @@
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E9" s="2">
         <v>35796</v>
@@ -1234,28 +1227,28 @@
         <v>1</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O9" s="2">
         <v>37591</v>
@@ -1264,7 +1257,7 @@
         <v>37681</v>
       </c>
       <c r="Q9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="R9">
         <v>987654321</v>
